--- a/biology/Zoologie/Canard_d'Estaires/Canard_d'Estaires.xlsx
+++ b/biology/Zoologie/Canard_d'Estaires/Canard_d'Estaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_d%27Estaires</t>
+          <t>Canard_d'Estaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le canard d'Estaires est un canard domestique originaire du Nord de la France, de la même région que la poule du même nom.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_d%27Estaires</t>
+          <t>Canard_d'Estaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette race a été sélectionnée dans la région d'Estaires [1] au bord de la Lys, à partir de canards locaux et du canard de Pékin américain[2]. Il n'a jamais eu un grand développement en dehors de sa région d'origine, et est devenu plutôt rare de nos jours[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race a été sélectionnée dans la région d'Estaires  au bord de la Lys, à partir de canards locaux et du canard de Pékin américain. Il n'a jamais eu un grand développement en dehors de sa région d'origine, et est devenu plutôt rare de nos jours.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_d%27Estaires</t>
+          <t>Canard_d'Estaires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le canard d'Estaires a la même forme que le canard de Bourbourg (également au plumage blanc), issu aussi du Nord-Pas-de-Calais; cependant il est moins gros (environ 2,2 kg). C'est un canard au plumage blanc fort rustique et précoce, à la chair relativement fine. Son bec est jaune foncé. Sa cane est une très bonne pondeuse[2] et une excellente couveuse[4],[5]. Son baguage est de 16 mm pour les deux sexes[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canard d'Estaires a la même forme que le canard de Bourbourg (également au plumage blanc), issu aussi du Nord-Pas-de-Calais; cependant il est moins gros (environ 2,2 kg). C'est un canard au plumage blanc fort rustique et précoce, à la chair relativement fine. Son bec est jaune foncé. Sa cane est une très bonne pondeuse et une excellente couveuse,. Son baguage est de 16 mm pour les deux sexes.
 </t>
         </is>
       </c>
